--- a/relatorios/repasses_liberados/dentistas/92615007572/2023-08-25_relatorio_repasses_92615007572.xlsx
+++ b/relatorios/repasses_liberados/dentistas/92615007572/2023-08-25_relatorio_repasses_92615007572.xlsx
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="M359">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N359">
         <v>0</v>
@@ -17298,7 +17298,7 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N360">
         <v>0</v>
@@ -17342,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N361">
         <v>0</v>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="M362">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N362">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N371">
         <v>0</v>
@@ -18266,7 +18266,7 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N382">
         <v>0</v>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N389">
         <v>0</v>
@@ -18662,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N391">
         <v>0</v>
@@ -18750,7 +18750,7 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N393">
         <v>0</v>
@@ -18794,7 +18794,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N394">
         <v>0</v>
@@ -18882,7 +18882,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N396">
         <v>0</v>
@@ -19630,7 +19630,7 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N413">
         <v>0</v>
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N415">
         <v>0</v>
@@ -19938,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="M420">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N420">
         <v>0</v>
@@ -20026,7 +20026,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -20070,7 +20070,7 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N423">
         <v>0</v>
@@ -20114,7 +20114,7 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N424">
         <v>0</v>
@@ -22930,7 +22930,7 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N488">
         <v>0</v>
@@ -22974,7 +22974,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -23018,7 +23018,7 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N490">
         <v>0</v>
@@ -23062,7 +23062,7 @@
         <v>0</v>
       </c>
       <c r="M491">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N491">
         <v>0</v>
@@ -23810,7 +23810,7 @@
         <v>0</v>
       </c>
       <c r="M508">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N508">
         <v>0</v>
@@ -23854,7 +23854,7 @@
         <v>0</v>
       </c>
       <c r="M509">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N509">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="M512">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N512">
         <v>0</v>
@@ -24030,7 +24030,7 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N513">
         <v>0</v>
@@ -24690,7 +24690,7 @@
         <v>0</v>
       </c>
       <c r="M528">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N528">
         <v>0</v>
@@ -24778,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="M530">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N530">
         <v>0</v>
@@ -25130,7 +25130,7 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N538">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="M545">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N545">
         <v>0</v>
@@ -25702,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -25790,7 +25790,7 @@
         <v>0</v>
       </c>
       <c r="M553">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N553">
         <v>0</v>
@@ -26010,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N558">
         <v>0</v>
@@ -26054,7 +26054,7 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N559">
         <v>0</v>
@@ -26406,7 +26406,7 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N567">
         <v>0</v>
@@ -26846,7 +26846,7 @@
         <v>0</v>
       </c>
       <c r="M577">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N577">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N579">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="M594">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N594">
         <v>0</v>
@@ -28914,7 +28914,7 @@
         <v>0</v>
       </c>
       <c r="M624">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N624">
         <v>0</v>
@@ -28958,7 +28958,7 @@
         <v>0</v>
       </c>
       <c r="M625">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N625">
         <v>0</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="M658">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N658">
         <v>0</v>
@@ -30454,7 +30454,7 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N659">
         <v>0</v>
@@ -30542,7 +30542,7 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N661">
         <v>0</v>
@@ -31158,7 +31158,7 @@
         <v>0</v>
       </c>
       <c r="M675">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N675">
         <v>0</v>
@@ -31202,7 +31202,7 @@
         <v>0</v>
       </c>
       <c r="M676">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N676">
         <v>0</v>
@@ -31246,7 +31246,7 @@
         <v>0</v>
       </c>
       <c r="M677">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N677">
         <v>0</v>
@@ -31290,7 +31290,7 @@
         <v>0</v>
       </c>
       <c r="M678">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N678">
         <v>0</v>
@@ -31554,7 +31554,7 @@
         <v>0</v>
       </c>
       <c r="M684">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N684">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>0</v>
       </c>
       <c r="M685">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N685">
         <v>0</v>
@@ -31642,7 +31642,7 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N686">
         <v>0</v>
@@ -32566,7 +32566,7 @@
         <v>0</v>
       </c>
       <c r="M707">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N707">
         <v>0</v>
@@ -32654,7 +32654,7 @@
         <v>0</v>
       </c>
       <c r="M709">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N709">
         <v>0</v>
@@ -32830,7 +32830,7 @@
         <v>0</v>
       </c>
       <c r="M713">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N713">
         <v>0</v>
@@ -32918,7 +32918,7 @@
         <v>0</v>
       </c>
       <c r="M715">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N715">
         <v>0</v>
@@ -34062,7 +34062,7 @@
         <v>0</v>
       </c>
       <c r="M741">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N741">
         <v>0</v>
@@ -34238,7 +34238,7 @@
         <v>0</v>
       </c>
       <c r="M745">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N745">
         <v>0</v>
@@ -34590,7 +34590,7 @@
         <v>0</v>
       </c>
       <c r="M753">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N753">
         <v>0</v>
@@ -34634,7 +34634,7 @@
         <v>0</v>
       </c>
       <c r="M754">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N754">
         <v>0</v>
@@ -34678,7 +34678,7 @@
         <v>0</v>
       </c>
       <c r="M755">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N755">
         <v>0</v>
@@ -35030,7 +35030,7 @@
         <v>0</v>
       </c>
       <c r="M763">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N763">
         <v>0</v>
@@ -35162,7 +35162,7 @@
         <v>0</v>
       </c>
       <c r="M766">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N766">
         <v>0</v>
@@ -35250,7 +35250,7 @@
         <v>0</v>
       </c>
       <c r="M768">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N768">
         <v>0</v>
@@ -35338,7 +35338,7 @@
         <v>0</v>
       </c>
       <c r="M770">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N770">
         <v>0</v>
@@ -35426,7 +35426,7 @@
         <v>0</v>
       </c>
       <c r="M772">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N772">
         <v>0</v>
@@ -36394,7 +36394,7 @@
         <v>0</v>
       </c>
       <c r="M794">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N794">
         <v>0</v>
@@ -36438,7 +36438,7 @@
         <v>0</v>
       </c>
       <c r="M795">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N795">
         <v>0</v>
@@ -36482,7 +36482,7 @@
         <v>0</v>
       </c>
       <c r="M796">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N796">
         <v>0</v>
@@ -36526,7 +36526,7 @@
         <v>0</v>
       </c>
       <c r="M797">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N797">
         <v>0</v>
@@ -37274,7 +37274,7 @@
         <v>0</v>
       </c>
       <c r="M814">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N814">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N815">
         <v>0</v>
@@ -37802,7 +37802,7 @@
         <v>0</v>
       </c>
       <c r="M826">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N826">
         <v>0</v>
@@ -37890,7 +37890,7 @@
         <v>0</v>
       </c>
       <c r="M828">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N828">
         <v>0</v>
@@ -39210,7 +39210,7 @@
         <v>0</v>
       </c>
       <c r="M858">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="N858">
         <v>0</v>
@@ -39254,7 +39254,7 @@
         <v>0</v>
       </c>
       <c r="M859">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="N859">
         <v>0</v>
@@ -39342,7 +39342,7 @@
         <v>0</v>
       </c>
       <c r="M861">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N861">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/92615007572/2023-08-25_relatorio_repasses_92615007572.xlsx
+++ b/relatorios/repasses_liberados/dentistas/92615007572/2023-08-25_relatorio_repasses_92615007572.xlsx
@@ -5330,10 +5330,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N88">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5990,10 +5990,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N103">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6034,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N104">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6078,10 +6078,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N105">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6210,10 +6210,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N108">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6342,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N111">
-        <v>5.184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -6474,10 +6474,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N114">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6562,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N116">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6606,10 +6606,10 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N117">
-        <v>6.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -7618,10 +7618,10 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N140">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7926,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N147">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -8234,10 +8234,10 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N154">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -8278,10 +8278,10 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N155">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -8322,10 +8322,10 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N156">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -8762,10 +8762,10 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N166">
-        <v>6.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -9114,10 +9114,10 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N174">
-        <v>5.184</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -9246,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N177">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -10698,10 +10698,10 @@
         <v>0</v>
       </c>
       <c r="M210">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N210">
-        <v>9.843</v>
+        <v>13.124</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -10830,10 +10830,10 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N213">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -10874,10 +10874,10 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N214">
-        <v>1.98</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -10962,10 +10962,10 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N216">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11006,10 +11006,10 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N217">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -11270,10 +11270,10 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N223">
-        <v>5.184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11402,10 +11402,10 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N226">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="227" spans="1:14">
@@ -11666,10 +11666,10 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N232">
-        <v>5.184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11710,10 +11710,10 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N233">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11798,10 +11798,10 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N235">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11842,10 +11842,10 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N236">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -11886,10 +11886,10 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N237">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -11930,10 +11930,10 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -11974,10 +11974,10 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N239">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12018,10 +12018,10 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N240">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12370,10 +12370,10 @@
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N248">
-        <v>8.709</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -12458,10 +12458,10 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N250">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -12502,10 +12502,10 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N251">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -12546,10 +12546,10 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N252">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -12678,10 +12678,10 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N255">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -12722,10 +12722,10 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N256">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12986,10 +12986,10 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N262">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -13294,10 +13294,10 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N269">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -13338,10 +13338,10 @@
         <v>0</v>
       </c>
       <c r="M270">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N270">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -13778,10 +13778,10 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N280">
-        <v>5.184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -14306,10 +14306,10 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N292">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -14834,10 +14834,10 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N304">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14878,10 +14878,10 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N305">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -14922,10 +14922,10 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N306">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -14966,10 +14966,10 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N307">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -15054,10 +15054,10 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N309">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -15098,10 +15098,10 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N310">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -15142,10 +15142,10 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N311">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -15274,10 +15274,10 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N314">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -15318,10 +15318,10 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N315">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -15362,10 +15362,10 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N316">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -15406,10 +15406,10 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N317">
-        <v>5.184</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -15450,10 +15450,10 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N318">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -15758,10 +15758,10 @@
         <v>0</v>
       </c>
       <c r="M325">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N325">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="326" spans="1:14">
@@ -15802,10 +15802,10 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N326">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -15846,10 +15846,10 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N327">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -16594,10 +16594,10 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N344">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="345" spans="1:14">
@@ -16638,10 +16638,10 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N345">
-        <v>5.97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:14">
@@ -16902,10 +16902,10 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N351">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="352" spans="1:14">
@@ -17298,7 +17298,7 @@
         <v>0</v>
       </c>
       <c r="M360">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N360">
         <v>0</v>
@@ -17342,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N361">
         <v>0</v>
@@ -17386,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="M362">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N362">
         <v>0</v>
@@ -17430,7 +17430,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
       <c r="M364">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N364">
         <v>0</v>
@@ -17738,7 +17738,7 @@
         <v>0</v>
       </c>
       <c r="M370">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N370">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N371">
         <v>0</v>
@@ -17870,7 +17870,7 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N373">
         <v>0</v>
@@ -18090,7 +18090,7 @@
         <v>0</v>
       </c>
       <c r="M378">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N378">
         <v>0</v>
@@ -18222,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N381">
         <v>0</v>
@@ -18310,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N383">
         <v>0</v>
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
       <c r="M386">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N386">
         <v>0</v>
@@ -18530,7 +18530,7 @@
         <v>0</v>
       </c>
       <c r="M388">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N388">
         <v>0</v>
@@ -18838,7 +18838,7 @@
         <v>0</v>
       </c>
       <c r="M395">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N395">
         <v>0</v>
@@ -18882,7 +18882,7 @@
         <v>0</v>
       </c>
       <c r="M396">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N396">
         <v>0</v>
@@ -19014,7 +19014,7 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N399">
         <v>0</v>
@@ -19058,7 +19058,7 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N400">
         <v>0</v>
@@ -19102,7 +19102,7 @@
         <v>0</v>
       </c>
       <c r="M401">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N401">
         <v>0</v>
@@ -19498,7 +19498,7 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N410">
         <v>0</v>
@@ -19542,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N411">
         <v>0</v>
@@ -19586,10 +19586,10 @@
         <v>1</v>
       </c>
       <c r="M412">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N412">
-        <v>45.6</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="413" spans="1:14">
@@ -19630,7 +19630,7 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N413">
         <v>0</v>
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N415">
         <v>0</v>
@@ -19850,7 +19850,7 @@
         <v>0</v>
       </c>
       <c r="M418">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N418">
         <v>0</v>
@@ -19894,7 +19894,7 @@
         <v>0</v>
       </c>
       <c r="M419">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N419">
         <v>0</v>
@@ -19938,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="M420">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N420">
         <v>0</v>
@@ -19982,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N421">
         <v>0</v>
@@ -20026,7 +20026,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -20070,7 +20070,7 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N423">
         <v>0</v>
@@ -20114,7 +20114,7 @@
         <v>0</v>
       </c>
       <c r="M424">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N424">
         <v>0</v>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="M425">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N425">
         <v>0</v>
@@ -20246,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="M427">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N427">
         <v>0</v>
@@ -20466,7 +20466,7 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N432">
         <v>0</v>
@@ -20554,7 +20554,7 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N434">
         <v>0</v>
@@ -20774,7 +20774,7 @@
         <v>0</v>
       </c>
       <c r="M439">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N439">
         <v>0</v>
@@ -20906,7 +20906,7 @@
         <v>0</v>
       </c>
       <c r="M442">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N442">
         <v>0</v>
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N447">
         <v>0</v>
@@ -21302,10 +21302,10 @@
         <v>1</v>
       </c>
       <c r="M451">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N451">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="452" spans="1:14">
@@ -21654,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="M459">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N459">
         <v>0</v>
@@ -21698,7 +21698,7 @@
         <v>0</v>
       </c>
       <c r="M460">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N460">
         <v>0</v>
@@ -21742,7 +21742,7 @@
         <v>0</v>
       </c>
       <c r="M461">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N461">
         <v>0</v>
@@ -21786,7 +21786,7 @@
         <v>0</v>
       </c>
       <c r="M462">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N462">
         <v>0</v>
@@ -21830,7 +21830,7 @@
         <v>0</v>
       </c>
       <c r="M463">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N463">
         <v>0</v>
@@ -22402,7 +22402,7 @@
         <v>0</v>
       </c>
       <c r="M476">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N476">
         <v>0</v>
@@ -22446,7 +22446,7 @@
         <v>0</v>
       </c>
       <c r="M477">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N477">
         <v>0</v>
@@ -22490,7 +22490,7 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N478">
         <v>0</v>
@@ -22754,7 +22754,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N484">
         <v>0</v>
@@ -22842,7 +22842,7 @@
         <v>0</v>
       </c>
       <c r="M486">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N486">
         <v>0</v>
@@ -22886,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="M487">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N487">
         <v>0</v>
@@ -22974,7 +22974,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -23018,7 +23018,7 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N490">
         <v>0</v>
@@ -23766,7 +23766,7 @@
         <v>0</v>
       </c>
       <c r="M507">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N507">
         <v>0</v>
@@ -23810,7 +23810,7 @@
         <v>0</v>
       </c>
       <c r="M508">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N508">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="M512">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N512">
         <v>0</v>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -24118,7 +24118,7 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N515">
         <v>0</v>
@@ -24470,7 +24470,7 @@
         <v>0</v>
       </c>
       <c r="M523">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N523">
         <v>0</v>
@@ -24558,7 +24558,7 @@
         <v>0</v>
       </c>
       <c r="M525">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N525">
         <v>0</v>
@@ -24602,7 +24602,7 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N526">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="M527">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N527">
         <v>0</v>
@@ -24690,7 +24690,7 @@
         <v>0</v>
       </c>
       <c r="M528">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N528">
         <v>0</v>
@@ -24778,7 +24778,7 @@
         <v>0</v>
       </c>
       <c r="M530">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N530">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="M531">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N531">
         <v>0</v>
@@ -24954,7 +24954,7 @@
         <v>0</v>
       </c>
       <c r="M534">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N534">
         <v>0</v>
@@ -25042,7 +25042,7 @@
         <v>0</v>
       </c>
       <c r="M536">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N536">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="M537">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N537">
         <v>0</v>
@@ -25350,7 +25350,7 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N543">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="M545">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N545">
         <v>0</v>
@@ -25658,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N550">
         <v>0</v>
@@ -25702,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="M556">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N556">
         <v>0</v>
@@ -25966,7 +25966,7 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N557">
         <v>0</v>
@@ -26010,7 +26010,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N558">
         <v>0</v>
@@ -26054,7 +26054,7 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N559">
         <v>0</v>
@@ -26186,7 +26186,7 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N562">
         <v>0</v>
@@ -26230,7 +26230,7 @@
         <v>0</v>
       </c>
       <c r="M563">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N563">
         <v>0</v>
@@ -26274,7 +26274,7 @@
         <v>0</v>
       </c>
       <c r="M564">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N564">
         <v>0</v>
@@ -26318,7 +26318,7 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N565">
         <v>0</v>
@@ -26362,7 +26362,7 @@
         <v>0</v>
       </c>
       <c r="M566">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N566">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>0</v>
       </c>
       <c r="M568">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N568">
         <v>0</v>
@@ -26494,7 +26494,7 @@
         <v>0</v>
       </c>
       <c r="M569">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N569">
         <v>0</v>
@@ -26582,7 +26582,7 @@
         <v>0</v>
       </c>
       <c r="M571">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N571">
         <v>0</v>
@@ -26802,7 +26802,7 @@
         <v>0</v>
       </c>
       <c r="M576">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N576">
         <v>0</v>
@@ -26890,7 +26890,7 @@
         <v>0</v>
       </c>
       <c r="M578">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N578">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="M579">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N579">
         <v>0</v>
@@ -27242,7 +27242,7 @@
         <v>0</v>
       </c>
       <c r="M586">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N586">
         <v>0</v>
@@ -27638,7 +27638,7 @@
         <v>0</v>
       </c>
       <c r="M595">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N595">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="M596">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N596">
         <v>0</v>
@@ -27726,7 +27726,7 @@
         <v>0</v>
       </c>
       <c r="M597">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N597">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="M600">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N600">
         <v>0</v>
@@ -27902,7 +27902,7 @@
         <v>0</v>
       </c>
       <c r="M601">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N601">
         <v>0</v>
@@ -28078,10 +28078,10 @@
         <v>0.986079</v>
       </c>
       <c r="M605">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N605">
-        <v>0</v>
+        <v>670.53372</v>
       </c>
     </row>
     <row r="606" spans="1:14">
@@ -28166,7 +28166,7 @@
         <v>0</v>
       </c>
       <c r="M607">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N607">
         <v>0</v>
@@ -28210,7 +28210,7 @@
         <v>0</v>
       </c>
       <c r="M608">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N608">
         <v>0</v>
@@ -28650,7 +28650,7 @@
         <v>0</v>
       </c>
       <c r="M618">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N618">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="M619">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N619">
         <v>0</v>
@@ -28738,7 +28738,7 @@
         <v>0</v>
       </c>
       <c r="M620">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N620">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="M621">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N621">
         <v>0</v>
@@ -28826,7 +28826,7 @@
         <v>0</v>
       </c>
       <c r="M622">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N622">
         <v>0</v>
@@ -28914,7 +28914,7 @@
         <v>0</v>
       </c>
       <c r="M624">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N624">
         <v>0</v>
@@ -29398,7 +29398,7 @@
         <v>0</v>
       </c>
       <c r="M635">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N635">
         <v>0</v>
@@ -29442,7 +29442,7 @@
         <v>0</v>
       </c>
       <c r="M636">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N636">
         <v>0</v>
@@ -29486,7 +29486,7 @@
         <v>0</v>
       </c>
       <c r="M637">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N637">
         <v>0</v>
@@ -29794,7 +29794,7 @@
         <v>0</v>
       </c>
       <c r="M644">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N644">
         <v>0</v>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
       <c r="M648">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N648">
         <v>0</v>
@@ -30014,7 +30014,7 @@
         <v>0</v>
       </c>
       <c r="M649">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N649">
         <v>0</v>
@@ -30146,7 +30146,7 @@
         <v>0</v>
       </c>
       <c r="M652">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N652">
         <v>0</v>
@@ -30190,7 +30190,7 @@
         <v>0</v>
       </c>
       <c r="M653">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N653">
         <v>0</v>
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="M654">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N654">
         <v>0</v>
@@ -30278,7 +30278,7 @@
         <v>0</v>
       </c>
       <c r="M655">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N655">
         <v>0</v>
@@ -30322,7 +30322,7 @@
         <v>0</v>
       </c>
       <c r="M656">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N656">
         <v>0</v>
@@ -30366,7 +30366,7 @@
         <v>0</v>
       </c>
       <c r="M657">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N657">
         <v>0</v>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="M658">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N658">
         <v>0</v>
@@ -30454,7 +30454,7 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N659">
         <v>0</v>
@@ -30674,7 +30674,7 @@
         <v>0</v>
       </c>
       <c r="M664">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N664">
         <v>0</v>
@@ -30718,7 +30718,7 @@
         <v>0</v>
       </c>
       <c r="M665">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N665">
         <v>0</v>
@@ -30850,7 +30850,7 @@
         <v>0</v>
       </c>
       <c r="M668">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N668">
         <v>0</v>
@@ -31070,7 +31070,7 @@
         <v>0</v>
       </c>
       <c r="M673">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N673">
         <v>0</v>
@@ -31158,7 +31158,7 @@
         <v>0</v>
       </c>
       <c r="M675">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N675">
         <v>0</v>
@@ -31290,7 +31290,7 @@
         <v>0</v>
       </c>
       <c r="M678">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N678">
         <v>0</v>
@@ -31466,7 +31466,7 @@
         <v>0</v>
       </c>
       <c r="M682">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N682">
         <v>0</v>
@@ -31642,7 +31642,7 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N686">
         <v>0</v>
@@ -31686,7 +31686,7 @@
         <v>0</v>
       </c>
       <c r="M687">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N687">
         <v>0</v>
@@ -31862,7 +31862,7 @@
         <v>0</v>
       </c>
       <c r="M691">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N691">
         <v>0</v>
@@ -31906,7 +31906,7 @@
         <v>0</v>
       </c>
       <c r="M692">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N692">
         <v>0</v>
@@ -31950,7 +31950,7 @@
         <v>0</v>
       </c>
       <c r="M693">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N693">
         <v>0</v>
@@ -31994,7 +31994,7 @@
         <v>0</v>
       </c>
       <c r="M694">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N694">
         <v>0</v>
@@ -32038,7 +32038,7 @@
         <v>0</v>
       </c>
       <c r="M695">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N695">
         <v>0</v>
@@ -32522,7 +32522,7 @@
         <v>0</v>
       </c>
       <c r="M706">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N706">
         <v>0</v>
@@ -32566,7 +32566,7 @@
         <v>0</v>
       </c>
       <c r="M707">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N707">
         <v>0</v>
@@ -32610,7 +32610,7 @@
         <v>0</v>
       </c>
       <c r="M708">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N708">
         <v>0</v>
@@ -32654,7 +32654,7 @@
         <v>0</v>
       </c>
       <c r="M709">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N709">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>0</v>
       </c>
       <c r="M712">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N712">
         <v>0</v>
@@ -32830,7 +32830,7 @@
         <v>0</v>
       </c>
       <c r="M713">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N713">
         <v>0</v>
@@ -32962,7 +32962,7 @@
         <v>0</v>
       </c>
       <c r="M716">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N716">
         <v>0</v>
@@ -33226,10 +33226,10 @@
         <v>0.87007</v>
       </c>
       <c r="M722">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N722">
-        <v>522.042</v>
+        <v>391.5315</v>
       </c>
     </row>
     <row r="723" spans="1:14">
@@ -33270,7 +33270,7 @@
         <v>0</v>
       </c>
       <c r="M723">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N723">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="M728">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N728">
         <v>0</v>
@@ -33534,7 +33534,7 @@
         <v>0</v>
       </c>
       <c r="M729">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N729">
         <v>0</v>
@@ -33578,7 +33578,7 @@
         <v>0</v>
       </c>
       <c r="M730">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N730">
         <v>0</v>
@@ -33974,7 +33974,7 @@
         <v>0</v>
       </c>
       <c r="M739">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N739">
         <v>0</v>
@@ -34018,7 +34018,7 @@
         <v>0</v>
       </c>
       <c r="M740">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N740">
         <v>0</v>
@@ -34106,7 +34106,7 @@
         <v>0</v>
       </c>
       <c r="M742">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N742">
         <v>0</v>
@@ -34238,7 +34238,7 @@
         <v>0</v>
       </c>
       <c r="M745">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N745">
         <v>0</v>
@@ -34414,10 +34414,10 @@
         <v>0.986079</v>
       </c>
       <c r="M749">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N749">
-        <v>670.53372</v>
+        <v>502.90029</v>
       </c>
     </row>
     <row r="750" spans="1:14">
@@ -34590,7 +34590,7 @@
         <v>0</v>
       </c>
       <c r="M753">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N753">
         <v>0</v>
@@ -34634,7 +34634,7 @@
         <v>0</v>
       </c>
       <c r="M754">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N754">
         <v>0</v>
@@ -34678,7 +34678,7 @@
         <v>0</v>
       </c>
       <c r="M755">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N755">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="M756">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N756">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>0</v>
       </c>
       <c r="M761">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N761">
         <v>0</v>
@@ -34986,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="M762">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N762">
         <v>0</v>
@@ -35074,7 +35074,7 @@
         <v>0</v>
       </c>
       <c r="M764">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N764">
         <v>0</v>
@@ -35118,7 +35118,7 @@
         <v>0</v>
       </c>
       <c r="M765">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N765">
         <v>0</v>
@@ -35162,7 +35162,7 @@
         <v>0</v>
       </c>
       <c r="M766">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N766">
         <v>0</v>
@@ -35206,7 +35206,7 @@
         <v>0</v>
       </c>
       <c r="M767">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N767">
         <v>0</v>
@@ -35250,7 +35250,7 @@
         <v>0</v>
       </c>
       <c r="M768">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N768">
         <v>0</v>
@@ -35294,7 +35294,7 @@
         <v>0</v>
       </c>
       <c r="M769">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N769">
         <v>0</v>
@@ -35426,7 +35426,7 @@
         <v>0</v>
       </c>
       <c r="M772">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N772">
         <v>0</v>
@@ -35470,7 +35470,7 @@
         <v>0</v>
       </c>
       <c r="M773">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N773">
         <v>0</v>
@@ -35602,7 +35602,7 @@
         <v>0</v>
       </c>
       <c r="M776">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N776">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="M790">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N790">
         <v>0</v>
@@ -36438,7 +36438,7 @@
         <v>0</v>
       </c>
       <c r="M795">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N795">
         <v>0</v>
@@ -36482,7 +36482,7 @@
         <v>0</v>
       </c>
       <c r="M796">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N796">
         <v>0</v>
@@ -36570,7 +36570,7 @@
         <v>0</v>
       </c>
       <c r="M798">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N798">
         <v>0</v>
@@ -36614,7 +36614,7 @@
         <v>0</v>
       </c>
       <c r="M799">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N799">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>0</v>
       </c>
       <c r="M806">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N806">
         <v>0</v>
@@ -36966,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="M807">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N807">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>0</v>
       </c>
       <c r="M808">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N808">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>0</v>
       </c>
       <c r="M815">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N815">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="M817">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N817">
         <v>0</v>
@@ -37846,7 +37846,7 @@
         <v>0</v>
       </c>
       <c r="M827">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N827">
         <v>0</v>
@@ -37890,7 +37890,7 @@
         <v>0</v>
       </c>
       <c r="M828">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N828">
         <v>0</v>
@@ -38374,7 +38374,7 @@
         <v>0</v>
       </c>
       <c r="M839">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N839">
         <v>0</v>
@@ -38418,7 +38418,7 @@
         <v>0</v>
       </c>
       <c r="M840">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N840">
         <v>0</v>
@@ -38594,7 +38594,7 @@
         <v>0</v>
       </c>
       <c r="M844">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N844">
         <v>0</v>
@@ -39254,7 +39254,7 @@
         <v>0</v>
       </c>
       <c r="M859">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="N859">
         <v>0</v>
@@ -39782,7 +39782,7 @@
         <v>0</v>
       </c>
       <c r="M871">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N871">
         <v>0</v>
@@ -40222,7 +40222,7 @@
         <v>0</v>
       </c>
       <c r="M881">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N881">
         <v>0</v>
@@ -40266,7 +40266,7 @@
         <v>0</v>
       </c>
       <c r="M882">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N882">
         <v>0</v>
@@ -40310,7 +40310,7 @@
         <v>0</v>
       </c>
       <c r="M883">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N883">
         <v>0</v>
@@ -40354,7 +40354,7 @@
         <v>0</v>
       </c>
       <c r="M884">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N884">
         <v>0</v>
@@ -40442,7 +40442,7 @@
         <v>0</v>
       </c>
       <c r="M886">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N886">
         <v>0</v>
@@ -40662,7 +40662,7 @@
         <v>0</v>
       </c>
       <c r="M891">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N891">
         <v>0</v>
@@ -40706,7 +40706,7 @@
         <v>0</v>
       </c>
       <c r="M892">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N892">
         <v>0</v>
@@ -40882,7 +40882,7 @@
         <v>0</v>
       </c>
       <c r="M896">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N896">
         <v>0</v>
@@ -41102,7 +41102,7 @@
         <v>0</v>
       </c>
       <c r="M901">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N901">
         <v>0</v>
